--- a/路线配送任务/test-router - 客户自定义时间.xlsx
+++ b/路线配送任务/test-router - 客户自定义时间.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\路线测试文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GithubRepositories\new_Delivery\路线配送任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45E4ED5-5FBA-401D-9B28-8705186C7BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686373DE-280B-408F-9B01-597A874217CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="825" windowWidth="20730" windowHeight="10815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="915" windowWidth="15795" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="节点信息" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,7 +580,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81FE82D-9D3B-4B91-8AD7-45E245A1D5EC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
